--- a/assets/backtest_summary/hedge_summary_table.xlsx
+++ b/assets/backtest_summary/hedge_summary_table.xlsx
@@ -15,9 +15,9 @@
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
     <sheet name="_summary_table" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -886,7 +886,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1533,6 +1532,9 @@
       <c:pivotFmt>
         <c:idx val="34"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1548,6 +1550,9 @@
       <c:pivotFmt>
         <c:idx val="35"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1563,6 +1568,9 @@
       <c:pivotFmt>
         <c:idx val="36"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1578,6 +1586,9 @@
       <c:pivotFmt>
         <c:idx val="37"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1593,6 +1604,9 @@
       <c:pivotFmt>
         <c:idx val="38"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1608,6 +1622,9 @@
       <c:pivotFmt>
         <c:idx val="39"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1623,6 +1640,9 @@
       <c:pivotFmt>
         <c:idx val="40"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1638,6 +1658,9 @@
       <c:pivotFmt>
         <c:idx val="41"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1653,6 +1676,9 @@
       <c:pivotFmt>
         <c:idx val="42"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1668,6 +1694,9 @@
       <c:pivotFmt>
         <c:idx val="43"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1683,6 +1712,9 @@
       <c:pivotFmt>
         <c:idx val="44"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1698,6 +1730,9 @@
       <c:pivotFmt>
         <c:idx val="45"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1713,6 +1748,9 @@
       <c:pivotFmt>
         <c:idx val="46"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1728,6 +1766,9 @@
       <c:pivotFmt>
         <c:idx val="47"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1743,6 +1784,9 @@
       <c:pivotFmt>
         <c:idx val="48"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1758,6 +1802,9 @@
       <c:pivotFmt>
         <c:idx val="49"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1773,6 +1820,9 @@
       <c:pivotFmt>
         <c:idx val="50"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1788,6 +1838,9 @@
       <c:pivotFmt>
         <c:idx val="51"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1803,6 +1856,9 @@
       <c:pivotFmt>
         <c:idx val="52"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1818,6 +1874,9 @@
       <c:pivotFmt>
         <c:idx val="53"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1833,6 +1892,9 @@
       <c:pivotFmt>
         <c:idx val="54"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1848,6 +1910,9 @@
       <c:pivotFmt>
         <c:idx val="55"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1863,6 +1928,9 @@
       <c:pivotFmt>
         <c:idx val="56"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1878,6 +1946,9 @@
       <c:pivotFmt>
         <c:idx val="57"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1893,6 +1964,9 @@
       <c:pivotFmt>
         <c:idx val="58"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1908,6 +1982,9 @@
       <c:pivotFmt>
         <c:idx val="59"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1923,6 +2000,9 @@
       <c:pivotFmt>
         <c:idx val="60"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1938,6 +2018,9 @@
       <c:pivotFmt>
         <c:idx val="61"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1953,6 +2036,9 @@
       <c:pivotFmt>
         <c:idx val="62"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1968,6 +2054,9 @@
       <c:pivotFmt>
         <c:idx val="63"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1983,6 +2072,9 @@
       <c:pivotFmt>
         <c:idx val="64"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1998,6 +2090,9 @@
       <c:pivotFmt>
         <c:idx val="65"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2013,6 +2108,9 @@
       <c:pivotFmt>
         <c:idx val="66"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2028,6 +2126,9 @@
       <c:pivotFmt>
         <c:idx val="67"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2043,6 +2144,9 @@
       <c:pivotFmt>
         <c:idx val="68"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2058,6 +2162,9 @@
       <c:pivotFmt>
         <c:idx val="69"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2073,6 +2180,9 @@
       <c:pivotFmt>
         <c:idx val="70"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2088,6 +2198,9 @@
       <c:pivotFmt>
         <c:idx val="71"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2103,6 +2216,9 @@
       <c:pivotFmt>
         <c:idx val="72"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2118,6 +2234,9 @@
       <c:pivotFmt>
         <c:idx val="73"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2133,6 +2252,9 @@
       <c:pivotFmt>
         <c:idx val="74"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2163,6 +2285,9 @@
       <c:pivotFmt>
         <c:idx val="76"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2178,6 +2303,9 @@
       <c:pivotFmt>
         <c:idx val="77"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2193,6 +2321,9 @@
       <c:pivotFmt>
         <c:idx val="78"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2208,6 +2339,9 @@
       <c:pivotFmt>
         <c:idx val="79"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2223,6 +2357,9 @@
       <c:pivotFmt>
         <c:idx val="80"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2238,6 +2375,9 @@
       <c:pivotFmt>
         <c:idx val="81"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2253,6 +2393,9 @@
       <c:pivotFmt>
         <c:idx val="82"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2268,6 +2411,9 @@
       <c:pivotFmt>
         <c:idx val="83"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2283,6 +2429,9 @@
       <c:pivotFmt>
         <c:idx val="84"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2298,6 +2447,9 @@
       <c:pivotFmt>
         <c:idx val="85"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2313,6 +2465,9 @@
       <c:pivotFmt>
         <c:idx val="86"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2328,6 +2483,9 @@
       <c:pivotFmt>
         <c:idx val="87"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2343,6 +2501,9 @@
       <c:pivotFmt>
         <c:idx val="88"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2358,6 +2519,9 @@
       <c:pivotFmt>
         <c:idx val="89"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2373,6 +2537,9 @@
       <c:pivotFmt>
         <c:idx val="90"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2388,6 +2555,9 @@
       <c:pivotFmt>
         <c:idx val="91"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2403,6 +2573,9 @@
       <c:pivotFmt>
         <c:idx val="92"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2418,6 +2591,9 @@
       <c:pivotFmt>
         <c:idx val="93"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2433,6 +2609,9 @@
       <c:pivotFmt>
         <c:idx val="94"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2448,6 +2627,9 @@
       <c:pivotFmt>
         <c:idx val="95"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2463,6 +2645,9 @@
       <c:pivotFmt>
         <c:idx val="96"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2478,6 +2663,9 @@
       <c:pivotFmt>
         <c:idx val="97"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2790,11 +2978,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1495099632"/>
-        <c:axId val="1495089840"/>
+        <c:axId val="-1180127792"/>
+        <c:axId val="-1180128880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1495099632"/>
+        <c:axId val="-1180127792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2837,7 +3025,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1495089840"/>
+        <c:crossAx val="-1180128880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2845,7 +3033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1495089840"/>
+        <c:axId val="-1180128880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2896,7 +3084,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1495099632"/>
+        <c:crossAx val="-1180127792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2910,7 +3098,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14794,7 +14981,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表6" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:C45" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0">
@@ -17992,7 +18179,7 @@
   <dimension ref="A1:L1224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -18139,7 +18326,7 @@
         <v>0.172591091</v>
       </c>
       <c r="H5" s="4">
-        <v>41766</v>
+        <v>41765</v>
       </c>
       <c r="I5" s="5">
         <v>17466919789</v>
@@ -18166,7 +18353,7 @@
       </c>
       <c r="I6">
         <f>XIRR(I2:I5,H2:H5)</f>
-        <v>0.26788037419319155</v>
+        <v>0.27101643681526177</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -18188,6 +18375,12 @@
       <c r="F7" s="9">
         <v>9.1529724000000007E-2</v>
       </c>
+      <c r="K7" s="3">
+        <v>41670</v>
+      </c>
+      <c r="L7">
+        <v>-16595707838</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -18214,6 +18407,13 @@
       <c r="I8">
         <v>-16595707838</v>
       </c>
+      <c r="K8" s="4">
+        <v>41765</v>
+      </c>
+      <c r="L8">
+        <f>I3+I4</f>
+        <v>197672530.19999999</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -18240,6 +18440,12 @@
       <c r="I9" s="5">
         <v>400272971.39999998</v>
       </c>
+      <c r="K9" s="4">
+        <v>41765</v>
+      </c>
+      <c r="L9" s="5">
+        <v>17466919789</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -18265,6 +18471,10 @@
       </c>
       <c r="I10" s="5">
         <v>-202600441.19999999</v>
+      </c>
+      <c r="L10">
+        <f>XIRR(L7:L9,K7:K9)</f>
+        <v>0.27101643681526177</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">

--- a/assets/backtest_summary/hedge_summary_table.xlsx
+++ b/assets/backtest_summary/hedge_summary_table.xlsx
@@ -2978,11 +2978,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1180127792"/>
-        <c:axId val="-1180128880"/>
+        <c:axId val="-765996288"/>
+        <c:axId val="-765995200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1180127792"/>
+        <c:axId val="-765996288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3025,7 +3025,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1180128880"/>
+        <c:crossAx val="-765995200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3033,7 +3033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1180128880"/>
+        <c:axId val="-765995200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3084,7 +3084,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1180127792"/>
+        <c:crossAx val="-765996288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18178,8 +18178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -20703,7 +20703,7 @@
       <c r="E121">
         <v>0</v>
       </c>
-      <c r="F121" s="9">
+      <c r="F121" s="10">
         <v>6.6791367000000004E-2</v>
       </c>
     </row>
